--- a/acquedotto.xlsx
+++ b/acquedotto.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F46F1-6CDD-45AA-9C5B-D924767BB2EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53B7796-A7D9-41E9-9471-6F3E8EBF1EA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1377,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1516,28 +1516,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1546,6 +1531,22 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1828,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA66" sqref="AA66"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2861,7 +2862,7 @@
         <f t="shared" ref="W21:W52" si="7">(((V21+U21)*T21/2)*Q21)</f>
         <v>346.76428027105902</v>
       </c>
-      <c r="Y21" s="60" t="s">
+      <c r="Y21" s="65" t="s">
         <v>322</v>
       </c>
       <c r="Z21" s="21" t="s">
@@ -2953,7 +2954,7 @@
         <v>252.20914995658805</v>
       </c>
       <c r="X22" s="4"/>
-      <c r="Y22" s="61"/>
+      <c r="Y22" s="67"/>
       <c r="Z22" s="21" t="s">
         <v>227</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>303.5022401978207</v>
       </c>
       <c r="X23" s="4"/>
-      <c r="Y23" s="61"/>
+      <c r="Y23" s="67"/>
       <c r="Z23" s="21" t="s">
         <v>228</v>
       </c>
@@ -3132,7 +3133,7 @@
         <f t="shared" si="7"/>
         <v>335.04966083206801</v>
       </c>
-      <c r="Y24" s="61"/>
+      <c r="Y24" s="67"/>
       <c r="Z24" s="21" t="s">
         <v>229</v>
       </c>
@@ -3732,22 +3733,22 @@
         <f t="shared" si="7"/>
         <v>310.13523521084505</v>
       </c>
-      <c r="Y32" s="60" t="s">
+      <c r="Y32" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="Z32" s="63" t="s">
+      <c r="Z32" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="AA32" s="63">
+      <c r="AA32" s="61">
         <v>120</v>
       </c>
-      <c r="AB32" s="65">
+      <c r="AB32" s="68">
         <v>419.2</v>
       </c>
-      <c r="AC32" s="63">
+      <c r="AC32" s="61">
         <v>41</v>
       </c>
-      <c r="AD32" s="68">
+      <c r="AD32" s="63">
         <f>(AB32*AC32)</f>
         <v>17187.2</v>
       </c>
@@ -3816,12 +3817,12 @@
         <f t="shared" si="7"/>
         <v>169.08772709127601</v>
       </c>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="69"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="64"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -4088,7 +4089,7 @@
         <f t="shared" si="7"/>
         <v>187.35592502169899</v>
       </c>
-      <c r="Y37" s="60" t="s">
+      <c r="Y37" s="65" t="s">
         <v>324</v>
       </c>
       <c r="Z37" t="s">
@@ -4157,7 +4158,7 @@
         <f t="shared" si="7"/>
         <v>155.65014058666003</v>
       </c>
-      <c r="Y38" s="62"/>
+      <c r="Y38" s="66"/>
       <c r="Z38" t="s">
         <v>304</v>
       </c>
@@ -4498,8 +4499,8 @@
         <v>113</v>
       </c>
       <c r="B46">
-        <f>(B45*0.25)</f>
-        <v>404.37009225933599</v>
+        <f>((9/24)*86.4 * G39)</f>
+        <v>606.55513838900401</v>
       </c>
       <c r="N46" s="47" t="s">
         <v>208</v>
@@ -4612,9 +4613,9 @@
       <c r="A49" t="s">
         <v>114</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="70">
         <f>(B45+B46)</f>
-        <v>2021.8504612966799</v>
+        <v>2224.035507426348</v>
       </c>
       <c r="N49" s="47" t="s">
         <v>211</v>
@@ -4701,7 +4702,7 @@
         <f t="shared" si="7"/>
         <v>329.50606608026271</v>
       </c>
-      <c r="Y50" s="60" t="s">
+      <c r="Y50" s="65" t="s">
         <v>311</v>
       </c>
       <c r="Z50" s="14">
@@ -4762,7 +4763,7 @@
         <f t="shared" si="7"/>
         <v>327.44005124014035</v>
       </c>
-      <c r="Y51" s="62"/>
+      <c r="Y51" s="66"/>
       <c r="Z51" s="14">
         <v>100</v>
       </c>
@@ -6027,7 +6028,7 @@
       <c r="C88" s="28">
         <v>0</v>
       </c>
-      <c r="D88" s="67" t="s">
+      <c r="D88" s="60" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6041,7 +6042,7 @@
       <c r="C89" s="28">
         <v>0</v>
       </c>
-      <c r="D89" s="67"/>
+      <c r="D89" s="60"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -6081,7 +6082,7 @@
       <c r="C92" s="28">
         <v>0</v>
       </c>
-      <c r="D92" s="67" t="s">
+      <c r="D92" s="60" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6095,7 +6096,7 @@
       <c r="C93" s="28">
         <v>0</v>
       </c>
-      <c r="D93" s="67"/>
+      <c r="D93" s="60"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -6177,7 +6178,7 @@
       <c r="C99" s="28">
         <v>0</v>
       </c>
-      <c r="D99" s="67" t="s">
+      <c r="D99" s="60" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6191,7 +6192,7 @@
       <c r="C100" s="28">
         <v>0</v>
       </c>
-      <c r="D100" s="67"/>
+      <c r="D100" s="60"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="30">
@@ -6209,6 +6210,11 @@
     <sortCondition ref="A2:A36"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
     <mergeCell ref="D88:D89"/>
     <mergeCell ref="D92:D93"/>
     <mergeCell ref="D99:D100"/>
@@ -6216,11 +6222,6 @@
     <mergeCell ref="AD32:AD33"/>
     <mergeCell ref="Y37:Y38"/>
     <mergeCell ref="Y50:Y51"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
